--- a/Landandemissions/Dataclean.xlsx
+++ b/Landandemissions/Dataclean.xlsx
@@ -468,8 +468,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2005</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -486,8 +488,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2010</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -504,8 +508,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2017</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -522,8 +528,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>2005</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -540,8 +548,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2010</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -558,8 +568,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>2017</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -576,8 +588,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2005</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -594,8 +608,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2010</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -612,8 +628,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2017</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -630,8 +648,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2005</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -648,8 +668,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2010</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -666,8 +688,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2017</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -684,8 +708,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2005</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -702,8 +728,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2010</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -720,8 +748,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2017</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -738,8 +768,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2005</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -756,8 +788,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2010</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -774,8 +808,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2017</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -792,8 +828,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2005</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -810,8 +848,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2010</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -828,8 +868,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2017</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -846,8 +888,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>2005</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -864,8 +908,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>2010</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -882,8 +928,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>2017</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -900,8 +948,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>2005</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -918,8 +968,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>2010</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -936,8 +988,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>2017</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -954,8 +1008,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>2005</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -972,8 +1028,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>2010</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -990,8 +1048,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2017</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1008,8 +1068,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>2005</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1026,8 +1088,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>2010</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1044,8 +1108,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>2017</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1062,8 +1128,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>2005</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1080,8 +1148,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>2010</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1098,8 +1168,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>2017</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1157,8 +1229,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2005</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1175,8 +1249,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2010</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1193,8 +1269,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2017</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1211,8 +1289,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>2005</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1229,8 +1309,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2010</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1247,8 +1329,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>2017</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1265,8 +1349,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2005</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1283,8 +1369,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2010</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1301,8 +1389,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2017</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1319,8 +1409,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2005</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1337,8 +1429,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2010</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1355,8 +1449,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2017</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1373,8 +1469,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2005</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1391,8 +1489,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2010</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1409,8 +1509,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2017</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1427,8 +1529,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2005</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1445,8 +1549,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2010</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1463,8 +1569,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2017</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1481,8 +1589,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2005</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1499,8 +1609,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2010</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1517,8 +1629,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2017</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1535,8 +1649,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>2005</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1553,8 +1669,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>2010</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1571,8 +1689,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>2017</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1589,8 +1709,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>2005</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1607,8 +1729,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>2010</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1625,8 +1749,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>2017</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1643,8 +1769,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>2005</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1661,8 +1789,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>2010</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1679,8 +1809,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2017</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1697,8 +1829,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>2005</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1715,8 +1849,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>2010</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1733,8 +1869,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>2017</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1751,8 +1889,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>2005</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1769,8 +1909,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>2010</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1787,8 +1929,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>2017</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1846,8 +1990,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2005</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1864,8 +2010,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2010</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1882,8 +2030,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2017</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1900,8 +2050,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>2005</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1918,8 +2070,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2010</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1936,8 +2090,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>2017</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1954,8 +2110,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2005</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1972,8 +2130,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2010</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1990,8 +2150,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2017</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2008,8 +2170,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2005</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2026,8 +2190,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2010</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2044,8 +2210,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2017</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2062,8 +2230,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2005</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2080,8 +2250,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2010</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2098,8 +2270,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2017</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2116,8 +2290,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2005</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2134,8 +2310,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2010</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2152,8 +2330,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2017</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2170,8 +2350,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2005</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2188,8 +2370,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2010</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2206,8 +2390,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2017</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2224,8 +2410,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>2005</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2242,8 +2430,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>2010</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2260,8 +2450,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>2017</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2278,8 +2470,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>2005</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2296,8 +2490,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>2010</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2314,8 +2510,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>2017</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2332,8 +2530,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>2005</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2350,8 +2550,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>2010</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2368,8 +2570,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2017</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2386,8 +2590,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>2005</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2404,8 +2610,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>2010</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2422,8 +2630,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>2017</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2440,8 +2650,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>2005</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2458,8 +2670,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>2010</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2476,8 +2690,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>2017</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2535,8 +2751,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2005</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2553,8 +2771,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2010</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2571,8 +2791,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2017</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2589,8 +2811,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>2005</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2607,8 +2831,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2010</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2625,8 +2851,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>2017</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2643,8 +2871,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2005</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2661,8 +2891,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2010</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2679,8 +2911,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2017</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2697,8 +2931,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2005</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2715,8 +2951,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2010</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2733,8 +2971,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2017</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2751,8 +2991,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2005</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2769,8 +3011,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2010</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2787,8 +3031,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2017</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2805,8 +3051,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2005</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2823,8 +3071,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2010</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2841,8 +3091,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2017</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2859,8 +3111,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2005</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2877,8 +3131,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2010</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2895,8 +3151,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2017</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2913,8 +3171,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>2005</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2931,8 +3191,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>2010</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2949,8 +3211,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>2017</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2967,8 +3231,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>2005</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2985,8 +3251,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>2010</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3003,8 +3271,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>2017</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3021,8 +3291,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>2005</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3039,8 +3311,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>2010</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3057,8 +3331,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2017</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3075,8 +3351,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>2005</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3093,8 +3371,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>2010</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3111,8 +3391,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>2017</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3129,8 +3411,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>2005</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -3147,8 +3431,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>2010</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -3165,8 +3451,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>2017</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -3224,8 +3512,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2005</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3242,8 +3532,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2010</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3260,8 +3552,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2017</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3278,8 +3572,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>2005</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3296,8 +3592,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2010</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3314,8 +3612,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>2017</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3332,8 +3632,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2005</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3350,8 +3652,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2010</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3368,8 +3672,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2017</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3386,8 +3692,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2005</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3404,8 +3712,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2010</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3422,8 +3732,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2017</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3440,8 +3752,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2005</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -3458,8 +3772,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2010</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3476,8 +3792,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2017</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -3494,8 +3812,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2005</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3512,8 +3832,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2010</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -3530,8 +3852,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2017</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3548,8 +3872,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2005</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3566,8 +3892,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2010</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3584,8 +3912,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2017</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3602,8 +3932,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>2005</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3620,8 +3952,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>2010</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3638,8 +3972,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>2017</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3656,8 +3992,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>2005</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3674,8 +4012,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>2010</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3692,8 +4032,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>2017</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3710,8 +4052,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>2005</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3728,8 +4072,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>2010</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3746,8 +4092,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2017</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3764,8 +4112,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>2005</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3782,8 +4132,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>2010</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3800,8 +4152,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>2017</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3818,8 +4172,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>2005</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -3836,8 +4192,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>2010</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -3854,8 +4212,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>2017</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -3913,8 +4273,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2005</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3931,8 +4293,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2010</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3949,8 +4313,10 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2017</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3967,8 +4333,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>2005</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3985,8 +4353,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2010</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4003,8 +4373,10 @@
           <t>Bolivia (Plurin. State of)</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>2017</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4021,8 +4393,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2005</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4039,8 +4413,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2010</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4057,8 +4433,10 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2017</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4075,8 +4453,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2005</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -4093,8 +4473,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2010</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4111,8 +4493,10 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2017</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -4129,8 +4513,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2005</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -4147,8 +4533,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2010</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -4165,8 +4553,10 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2017</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -4183,8 +4573,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2005</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -4201,8 +4593,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2010</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -4219,8 +4613,10 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2017</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -4237,8 +4633,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2005</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -4255,8 +4653,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2010</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -4273,8 +4673,10 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2017</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -4291,8 +4693,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>2005</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -4309,8 +4713,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>2010</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -4327,8 +4733,10 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>2017</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -4345,8 +4753,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>2005</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -4363,8 +4773,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>2010</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4381,8 +4793,10 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>2017</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4399,8 +4813,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>2005</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4417,8 +4833,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>2010</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4435,8 +4853,10 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2017</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4453,8 +4873,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>2005</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4471,8 +4893,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>2010</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4489,8 +4913,10 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>2017</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4507,8 +4933,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>2005</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4525,8 +4953,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>2010</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4543,8 +4973,10 @@
           <t>Venezuela (Boliv. Rep. of)</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>2017</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4582,18 +5014,24 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2005</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2010</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2017</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
     </row>
   </sheetData>
